--- a/map .xlsx
+++ b/map .xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="13">
   <si>
     <t xml:space="preserve">v</t>
   </si>
@@ -37034,8 +37034,8 @@
   </sheetPr>
   <dimension ref="A1:AZ80"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AB19" activeCellId="0" sqref="AB19"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AD19" activeCellId="0" sqref="AD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -41720,8 +41720,8 @@
   </sheetPr>
   <dimension ref="A1:AZ80"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U13" activeCellId="0" sqref="U13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="X17" activeCellId="0" sqref="X17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -42180,52 +42180,52 @@
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
       <c r="K7" s="17" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L7" s="17" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="M7" s="17" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="N7" s="17" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="O7" s="17" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="P7" s="17" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="17" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="R7" s="17" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="S7" s="17" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="T7" s="17" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="U7" s="17" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="V7" s="17" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="W7" s="17" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="X7" s="17" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="Y7" s="17" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="Z7" s="17" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AA7" s="17" t="n">
         <v>1</v>
@@ -42274,7 +42274,7 @@
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
       <c r="K8" s="17" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L8" s="18"/>
       <c r="M8" s="17"/>
@@ -42290,7 +42290,9 @@
       <c r="W8" s="18"/>
       <c r="X8" s="18"/>
       <c r="Y8" s="18"/>
-      <c r="Z8" s="17"/>
+      <c r="Z8" s="17" t="n">
+        <v>2</v>
+      </c>
       <c r="AA8" s="18"/>
       <c r="AB8" s="17"/>
       <c r="AC8" s="18"/>
@@ -42325,42 +42327,74 @@
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
       <c r="D9" s="18"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
+      <c r="E9" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" s="17" t="n">
+        <v>2</v>
+      </c>
       <c r="H9" s="18"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
+      <c r="I9" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" s="17" t="n">
+        <v>2</v>
+      </c>
       <c r="K9" s="17" t="s">
         <v>9</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="17"/>
       <c r="N9" s="18"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
+      <c r="O9" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="P9" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" s="17" t="n">
+        <v>4</v>
+      </c>
       <c r="T9" s="18"/>
       <c r="U9" s="18"/>
       <c r="V9" s="17"/>
       <c r="W9" s="17"/>
       <c r="X9" s="17"/>
       <c r="Y9" s="17"/>
-      <c r="Z9" s="17"/>
+      <c r="Z9" s="17" t="n">
+        <v>2</v>
+      </c>
       <c r="AA9" s="18"/>
       <c r="AB9" s="17"/>
       <c r="AC9" s="28"/>
-      <c r="AD9" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE9" s="17"/>
-      <c r="AF9" s="17"/>
+      <c r="AD9" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE9" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF9" s="17" t="n">
+        <v>2</v>
+      </c>
       <c r="AG9" s="18"/>
-      <c r="AH9" s="17"/>
-      <c r="AI9" s="17"/>
-      <c r="AJ9" s="19"/>
+      <c r="AH9" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI9" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ9" s="19" t="n">
+        <v>2</v>
+      </c>
       <c r="AK9" s="26"/>
       <c r="AL9" s="17"/>
       <c r="AM9" s="17"/>
@@ -42383,11 +42417,17 @@
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
       <c r="D10" s="18"/>
-      <c r="E10" s="17"/>
+      <c r="E10" s="17" t="n">
+        <v>2</v>
+      </c>
       <c r="F10" s="31"/>
-      <c r="G10" s="17"/>
+      <c r="G10" s="17" t="n">
+        <v>2</v>
+      </c>
       <c r="H10" s="18"/>
-      <c r="I10" s="17"/>
+      <c r="I10" s="17" t="n">
+        <v>2</v>
+      </c>
       <c r="J10" s="18"/>
       <c r="K10" s="17" t="n">
         <v>1</v>
@@ -42395,30 +42435,42 @@
       <c r="L10" s="18"/>
       <c r="M10" s="17"/>
       <c r="N10" s="18"/>
-      <c r="O10" s="17"/>
+      <c r="O10" s="17" t="n">
+        <v>4</v>
+      </c>
       <c r="P10" s="18"/>
       <c r="Q10" s="18"/>
       <c r="R10" s="18"/>
-      <c r="S10" s="17"/>
+      <c r="S10" s="17" t="n">
+        <v>4</v>
+      </c>
       <c r="T10" s="18"/>
       <c r="U10" s="18"/>
       <c r="V10" s="17"/>
       <c r="W10" s="18"/>
       <c r="X10" s="18"/>
       <c r="Y10" s="18"/>
-      <c r="Z10" s="17"/>
+      <c r="Z10" s="17" t="n">
+        <v>2</v>
+      </c>
       <c r="AA10" s="18"/>
       <c r="AB10" s="17"/>
       <c r="AC10" s="18"/>
       <c r="AD10" s="17" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AE10" s="18"/>
-      <c r="AF10" s="17"/>
+      <c r="AF10" s="17" t="n">
+        <v>2</v>
+      </c>
       <c r="AG10" s="18"/>
-      <c r="AH10" s="17"/>
+      <c r="AH10" s="17" t="n">
+        <v>2</v>
+      </c>
       <c r="AI10" s="31"/>
-      <c r="AJ10" s="19"/>
+      <c r="AJ10" s="19" t="n">
+        <v>2</v>
+      </c>
       <c r="AK10" s="26"/>
       <c r="AL10" s="17"/>
       <c r="AM10" s="17"/>
@@ -42441,42 +42493,78 @@
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
       <c r="D11" s="18"/>
-      <c r="E11" s="17"/>
+      <c r="E11" s="17" t="n">
+        <v>2</v>
+      </c>
       <c r="F11" s="31"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
+      <c r="G11" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="H11" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" s="17" t="n">
+        <v>2</v>
+      </c>
       <c r="J11" s="18"/>
       <c r="K11" s="17" t="n">
         <v>1</v>
       </c>
       <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
+      <c r="M11" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="O11" s="17" t="n">
+        <v>4</v>
+      </c>
       <c r="P11" s="18"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
+      <c r="Q11" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R11" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" s="17" t="n">
+        <v>4</v>
+      </c>
       <c r="T11" s="17"/>
       <c r="U11" s="17"/>
       <c r="V11" s="17"/>
       <c r="W11" s="17"/>
       <c r="X11" s="17"/>
       <c r="Y11" s="18"/>
-      <c r="Z11" s="17"/>
-      <c r="AA11" s="17"/>
-      <c r="AB11" s="17"/>
-      <c r="AC11" s="17"/>
+      <c r="Z11" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA11" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB11" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC11" s="17" t="n">
+        <v>2</v>
+      </c>
       <c r="AD11" s="17" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AE11" s="18"/>
-      <c r="AF11" s="17"/>
-      <c r="AG11" s="17"/>
-      <c r="AH11" s="17"/>
+      <c r="AF11" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG11" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH11" s="17" t="n">
+        <v>2</v>
+      </c>
       <c r="AI11" s="31"/>
-      <c r="AJ11" s="19"/>
+      <c r="AJ11" s="19" t="n">
+        <v>2</v>
+      </c>
       <c r="AK11" s="26"/>
       <c r="AL11" s="17"/>
       <c r="AM11" s="17"/>
@@ -42499,7 +42587,9 @@
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
       <c r="D12" s="18"/>
-      <c r="E12" s="17"/>
+      <c r="E12" s="17" t="n">
+        <v>2</v>
+      </c>
       <c r="F12" s="31"/>
       <c r="G12" s="17"/>
       <c r="H12" s="18"/>
@@ -42509,11 +42599,15 @@
         <v>1</v>
       </c>
       <c r="L12" s="18"/>
-      <c r="M12" s="17"/>
+      <c r="M12" s="17" t="n">
+        <v>4</v>
+      </c>
       <c r="N12" s="18"/>
       <c r="O12" s="18"/>
       <c r="P12" s="18"/>
-      <c r="Q12" s="17"/>
+      <c r="Q12" s="17" t="n">
+        <v>4</v>
+      </c>
       <c r="R12" s="18"/>
       <c r="S12" s="18"/>
       <c r="T12" s="18"/>
@@ -42534,7 +42628,9 @@
       <c r="AG12" s="18"/>
       <c r="AH12" s="17"/>
       <c r="AI12" s="31"/>
-      <c r="AJ12" s="19"/>
+      <c r="AJ12" s="19" t="n">
+        <v>2</v>
+      </c>
       <c r="AK12" s="26"/>
       <c r="AL12" s="17"/>
       <c r="AM12" s="17"/>
@@ -42557,7 +42653,9 @@
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
       <c r="D13" s="18"/>
-      <c r="E13" s="17"/>
+      <c r="E13" s="17" t="n">
+        <v>2</v>
+      </c>
       <c r="F13" s="31"/>
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
@@ -42567,18 +42665,36 @@
         <v>1</v>
       </c>
       <c r="L13" s="18"/>
-      <c r="M13" s="17"/>
+      <c r="M13" s="17" t="n">
+        <v>4</v>
+      </c>
       <c r="N13" s="18"/>
       <c r="O13" s="32"/>
       <c r="P13" s="33"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="28"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="28"/>
-      <c r="U13" s="28"/>
-      <c r="V13" s="28"/>
-      <c r="W13" s="28"/>
-      <c r="X13" s="17"/>
+      <c r="Q13" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R13" s="28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" s="28" t="n">
+        <v>4</v>
+      </c>
+      <c r="T13" s="28" t="n">
+        <v>4</v>
+      </c>
+      <c r="U13" s="28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" s="28" t="n">
+        <v>4</v>
+      </c>
+      <c r="W13" s="28" t="n">
+        <v>4</v>
+      </c>
+      <c r="X13" s="17" t="n">
+        <v>4</v>
+      </c>
       <c r="Y13" s="17"/>
       <c r="Z13" s="22"/>
       <c r="AA13" s="18"/>
@@ -42592,7 +42708,9 @@
       <c r="AG13" s="17"/>
       <c r="AH13" s="17"/>
       <c r="AI13" s="31"/>
-      <c r="AJ13" s="19"/>
+      <c r="AJ13" s="19" t="n">
+        <v>2</v>
+      </c>
       <c r="AK13" s="26"/>
       <c r="AL13" s="17"/>
       <c r="AM13" s="17"/>
@@ -42615,7 +42733,9 @@
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="18"/>
-      <c r="E14" s="17"/>
+      <c r="E14" s="17" t="n">
+        <v>2</v>
+      </c>
       <c r="F14" s="31"/>
       <c r="G14" s="17"/>
       <c r="H14" s="18"/>
@@ -42625,7 +42745,9 @@
         <v>1</v>
       </c>
       <c r="L14" s="18"/>
-      <c r="M14" s="17"/>
+      <c r="M14" s="17" t="n">
+        <v>4</v>
+      </c>
       <c r="N14" s="18"/>
       <c r="O14" s="18"/>
       <c r="P14" s="18"/>
@@ -42636,7 +42758,9 @@
       <c r="U14" s="18"/>
       <c r="V14" s="18"/>
       <c r="W14" s="18"/>
-      <c r="X14" s="17"/>
+      <c r="X14" s="17" t="n">
+        <v>4</v>
+      </c>
       <c r="Y14" s="18"/>
       <c r="Z14" s="18"/>
       <c r="AA14" s="18"/>
@@ -42650,7 +42774,9 @@
       <c r="AG14" s="18"/>
       <c r="AH14" s="17"/>
       <c r="AI14" s="31"/>
-      <c r="AJ14" s="19"/>
+      <c r="AJ14" s="19" t="n">
+        <v>2</v>
+      </c>
       <c r="AK14" s="26"/>
       <c r="AL14" s="17"/>
       <c r="AM14" s="17"/>
@@ -42673,19 +42799,33 @@
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="18"/>
-      <c r="E15" s="17"/>
+      <c r="E15" s="17" t="n">
+        <v>2</v>
+      </c>
       <c r="F15" s="18"/>
       <c r="G15" s="17"/>
       <c r="H15" s="18"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
+      <c r="I15" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="J15" s="17" t="n">
+        <v>2</v>
+      </c>
       <c r="K15" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
+        <v>12</v>
+      </c>
+      <c r="L15" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="M15" s="17" t="n">
+        <v>24</v>
+      </c>
+      <c r="N15" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="O15" s="17" t="n">
+        <v>2</v>
+      </c>
       <c r="P15" s="18"/>
       <c r="Q15" s="17"/>
       <c r="R15" s="17"/>
@@ -42694,14 +42834,24 @@
       <c r="U15" s="17"/>
       <c r="V15" s="17"/>
       <c r="W15" s="17"/>
-      <c r="X15" s="17"/>
+      <c r="X15" s="17" t="n">
+        <v>4</v>
+      </c>
       <c r="Y15" s="18"/>
-      <c r="Z15" s="17"/>
-      <c r="AA15" s="17"/>
-      <c r="AB15" s="17"/>
-      <c r="AC15" s="17"/>
+      <c r="Z15" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA15" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB15" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC15" s="17" t="n">
+        <v>4</v>
+      </c>
       <c r="AD15" s="17" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="AE15" s="17" t="n">
         <v>1</v>
@@ -42712,7 +42862,9 @@
       <c r="AG15" s="18"/>
       <c r="AH15" s="17"/>
       <c r="AI15" s="18"/>
-      <c r="AJ15" s="19"/>
+      <c r="AJ15" s="19" t="n">
+        <v>2</v>
+      </c>
       <c r="AK15" s="26"/>
       <c r="AL15" s="17"/>
       <c r="AM15" s="17"/>
@@ -42735,19 +42887,27 @@
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
       <c r="D16" s="18"/>
-      <c r="E16" s="33"/>
+      <c r="E16" s="33" t="n">
+        <v>2</v>
+      </c>
       <c r="F16" s="31"/>
       <c r="G16" s="33"/>
       <c r="H16" s="18"/>
-      <c r="I16" s="17"/>
+      <c r="I16" s="17" t="n">
+        <v>2</v>
+      </c>
       <c r="J16" s="18"/>
       <c r="K16" s="17" t="n">
         <v>1</v>
       </c>
       <c r="L16" s="18"/>
-      <c r="M16" s="17"/>
+      <c r="M16" s="17" t="n">
+        <v>4</v>
+      </c>
       <c r="N16" s="18"/>
-      <c r="O16" s="17"/>
+      <c r="O16" s="17" t="n">
+        <v>2</v>
+      </c>
       <c r="P16" s="18"/>
       <c r="Q16" s="17"/>
       <c r="R16" s="18"/>
@@ -42756,13 +42916,19 @@
       <c r="U16" s="18"/>
       <c r="V16" s="18"/>
       <c r="W16" s="18"/>
-      <c r="X16" s="17"/>
+      <c r="X16" s="17" t="n">
+        <v>4</v>
+      </c>
       <c r="Y16" s="18"/>
-      <c r="Z16" s="17"/>
+      <c r="Z16" s="17" t="n">
+        <v>4</v>
+      </c>
       <c r="AA16" s="18"/>
       <c r="AB16" s="17"/>
       <c r="AC16" s="18"/>
-      <c r="AD16" s="17"/>
+      <c r="AD16" s="17" t="n">
+        <v>4</v>
+      </c>
       <c r="AE16" s="18"/>
       <c r="AF16" s="17" t="n">
         <v>1</v>
@@ -42770,7 +42936,9 @@
       <c r="AG16" s="18"/>
       <c r="AH16" s="34"/>
       <c r="AI16" s="35"/>
-      <c r="AJ16" s="36"/>
+      <c r="AJ16" s="36" t="n">
+        <v>2</v>
+      </c>
       <c r="AK16" s="26"/>
       <c r="AL16" s="17"/>
       <c r="AM16" s="17"/>
@@ -42793,42 +42961,80 @@
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="18"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
+      <c r="E17" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="F17" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="G17" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="H17" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="I17" s="17" t="n">
+        <v>2</v>
+      </c>
       <c r="J17" s="18"/>
       <c r="K17" s="17" t="n">
         <v>1</v>
       </c>
       <c r="L17" s="28"/>
-      <c r="M17" s="17"/>
+      <c r="M17" s="17" t="n">
+        <v>4</v>
+      </c>
       <c r="N17" s="18"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
+      <c r="O17" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="P17" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="R17" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="S17" s="17" t="n">
+        <v>2</v>
+      </c>
       <c r="T17" s="18"/>
       <c r="U17" s="18"/>
       <c r="V17" s="17"/>
       <c r="W17" s="17"/>
-      <c r="X17" s="17"/>
-      <c r="Y17" s="17"/>
-      <c r="Z17" s="17"/>
+      <c r="X17" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y17" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z17" s="17" t="n">
+        <v>4</v>
+      </c>
       <c r="AA17" s="18"/>
       <c r="AB17" s="17"/>
       <c r="AC17" s="28"/>
-      <c r="AD17" s="17"/>
+      <c r="AD17" s="17" t="n">
+        <v>4</v>
+      </c>
       <c r="AE17" s="18"/>
       <c r="AF17" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG17" s="17"/>
-      <c r="AH17" s="17"/>
-      <c r="AI17" s="17"/>
-      <c r="AJ17" s="19"/>
+        <v>12</v>
+      </c>
+      <c r="AG17" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH17" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI17" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ17" s="19" t="n">
+        <v>2</v>
+      </c>
       <c r="AK17" s="26"/>
       <c r="AL17" s="17"/>
       <c r="AM17" s="17"/>
@@ -42861,13 +43067,17 @@
         <v>1</v>
       </c>
       <c r="L18" s="18"/>
-      <c r="M18" s="17"/>
+      <c r="M18" s="17" t="n">
+        <v>4</v>
+      </c>
       <c r="N18" s="18"/>
       <c r="O18" s="17"/>
       <c r="P18" s="18"/>
       <c r="Q18" s="17"/>
       <c r="R18" s="18"/>
-      <c r="S18" s="17"/>
+      <c r="S18" s="17" t="n">
+        <v>2</v>
+      </c>
       <c r="T18" s="18"/>
       <c r="U18" s="18"/>
       <c r="V18" s="17"/>
@@ -42878,10 +43088,12 @@
       <c r="AA18" s="18"/>
       <c r="AB18" s="17"/>
       <c r="AC18" s="18"/>
-      <c r="AD18" s="17"/>
+      <c r="AD18" s="17" t="n">
+        <v>4</v>
+      </c>
       <c r="AE18" s="18"/>
       <c r="AF18" s="17" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AG18" s="18"/>
       <c r="AH18" s="18"/>
@@ -42923,27 +43135,45 @@
         <v>1</v>
       </c>
       <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
+      <c r="M19" s="17" t="n">
+        <v>4</v>
+      </c>
       <c r="N19" s="18"/>
       <c r="O19" s="17"/>
       <c r="P19" s="28"/>
       <c r="Q19" s="17"/>
       <c r="R19" s="18"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="17"/>
-      <c r="U19" s="17"/>
-      <c r="V19" s="17"/>
+      <c r="S19" s="17" t="n">
+        <v>24</v>
+      </c>
+      <c r="T19" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="U19" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" s="17" t="n">
+        <v>4</v>
+      </c>
       <c r="W19" s="18"/>
       <c r="X19" s="17"/>
       <c r="Y19" s="28"/>
       <c r="Z19" s="17"/>
       <c r="AA19" s="18"/>
-      <c r="AB19" s="17"/>
-      <c r="AC19" s="17"/>
-      <c r="AD19" s="17"/>
-      <c r="AE19" s="17"/>
+      <c r="AB19" s="17" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC19" s="17" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD19" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE19" s="17" t="n">
+        <v>2</v>
+      </c>
       <c r="AF19" s="17" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AG19" s="18"/>
       <c r="AH19" s="38"/>
@@ -42981,22 +43211,30 @@
       <c r="J20" s="18"/>
       <c r="K20" s="18"/>
       <c r="L20" s="18"/>
-      <c r="M20" s="17"/>
+      <c r="M20" s="17" t="n">
+        <v>4</v>
+      </c>
       <c r="N20" s="18"/>
       <c r="O20" s="17"/>
       <c r="P20" s="18"/>
       <c r="Q20" s="17"/>
       <c r="R20" s="18"/>
-      <c r="S20" s="17"/>
+      <c r="S20" s="17" t="n">
+        <v>24</v>
+      </c>
       <c r="T20" s="18"/>
       <c r="U20" s="18"/>
-      <c r="V20" s="17"/>
+      <c r="V20" s="17" t="n">
+        <v>4</v>
+      </c>
       <c r="W20" s="18"/>
       <c r="X20" s="17"/>
       <c r="Y20" s="18"/>
       <c r="Z20" s="17"/>
       <c r="AA20" s="18"/>
-      <c r="AB20" s="17"/>
+      <c r="AB20" s="17" t="n">
+        <v>24</v>
+      </c>
       <c r="AC20" s="18"/>
       <c r="AD20" s="18"/>
       <c r="AE20" s="18"/>
@@ -43046,52 +43284,52 @@
         <v>1</v>
       </c>
       <c r="M21" s="12" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="N21" s="12" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="O21" s="12" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="P21" s="12" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="Q21" s="12" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="R21" s="12" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="S21" s="12" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="T21" s="24" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="U21" s="24" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="V21" s="12" t="n">
-        <v>1</v>
+        <v>124</v>
       </c>
       <c r="W21" s="12" t="n">
-        <v>1</v>
+        <v>124</v>
       </c>
       <c r="X21" s="12" t="n">
-        <v>1</v>
+        <v>124</v>
       </c>
       <c r="Y21" s="12" t="n">
-        <v>1</v>
+        <v>124</v>
       </c>
       <c r="Z21" s="12" t="n">
-        <v>1</v>
+        <v>124</v>
       </c>
       <c r="AA21" s="12" t="n">
-        <v>1</v>
+        <v>124</v>
       </c>
       <c r="AB21" s="12" t="n">
-        <v>1</v>
+        <v>124</v>
       </c>
       <c r="AC21" s="24" t="n">
         <v>1</v>
